--- a/biology/Zoologie/Adela_rufifrontella/Adela_rufifrontella.xlsx
+++ b/biology/Zoologie/Adela_rufifrontella/Adela_rufifrontella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cauchas rufifrontella
-Adela rufifrontella[1] (ou Cauchas rufifrontella[2],[3]), l'Adèle à front roux, est une espèce de papillons nocturnes de la famille des Adelidae[1],[2].
+Adela rufifrontella (ou Cauchas rufifrontella,), l'Adèle à front roux, est une espèce de papillons nocturnes de la famille des Adelidae,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est de couleur gris foncé, hormis la tête qui présente une touffe de poils roux, de laquelle elle tire son nom scientifique. Son envergure est de 9-12 mm. Elle ressemble beaucoup à Cauchas rufimitrella, toutefois cette dernière possède des antennes plus longues.
 </t>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La chenille, qui vit dans un fourreau de feuilles, se nourrit sur différentes plantes dont Teesdalia nudicaulis et Valeriana officinalis.
 </t>
@@ -574,9 +590,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien qu'appartenant au sous-ordre des hétérocères, ce papillon peut être aperçu volant en plein jour comme de nombreux papillons de nuit. Il apparaît de mars à juillet[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'appartenant au sous-ordre des hétérocères, ce papillon peut être aperçu volant en plein jour comme de nombreux papillons de nuit. Il apparaît de mars à juillet.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe dans divers milieux (forêts, prairies…).
 </t>
@@ -636,11 +656,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Pour GBIF, le taxon valide de cette espèce est Adela rufifrontella Treitschke, 1833 et Cauchas rufifrontella (Treitschke, 1833), un synonyme[1].
-En revanche pour l’INPN, c'est la situation inverse qui est retenue, Cauchas rufifrontella (Treitschke, 1833) est le taxon valide et Adela rufifrontella Treitschke, 1833 le synonyme[2].
-Adela rufifrontella a pour synonymes[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pour GBIF, le taxon valide de cette espèce est Adela rufifrontella Treitschke, 1833 et Cauchas rufifrontella (Treitschke, 1833), un synonyme.
+En revanche pour l’INPN, c'est la situation inverse qui est retenue, Cauchas rufifrontella (Treitschke, 1833) est le taxon valide et Adela rufifrontella Treitschke, 1833 le synonyme.
+Adela rufifrontella a pour synonymes :
 Adela aurifrontella Duponchel, 1838
 Cauchas rufifrontella (Treitschke, 1833)</t>
         </is>
